--- a/行程memo.xlsx
+++ b/行程memo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="12105"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="18315" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>茨城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,14 +27,6 @@
   </si>
   <si>
     <t>水戶&gt;&gt;水戶偕樂園</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,6 +128,199 @@
 B.水戶北口6號公車站搭乘「偕樂園方向」公車，在終點站「偕樂園」下車
 PS.上車一定要抽整理券，下車必須整理券+零錢一起投。如果是買1日乘車券，整理券也要投入</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退稅流程:先到櫃台(退稅櫃台位在八重州北口的右手邊，一樓的星巴克旁)出示護照領取免稅導覽手冊、免稅申請表 → 購物時出示免稅申請表→購物完之後再回到櫃台出示免稅申請表、購買商品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東京車站_kitte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東京車站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東京車站_三菱一號館美術館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「東京」站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>丸之內南口過馬路步行約</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分鐘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>營業時間：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>11:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>～</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>21:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新宿_藍瓶咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南口NEWoMan的1F(東京都新宿区新宿4-1-6 週一～日8:00~21:30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「東京」站下車，丸之內南口步行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分鐘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馳走三昧（大丸東京店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新橋鶏繁どんぶり子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水戶東照宮</t>
+  </si>
+  <si>
+    <t>JR水戸車站北口徒歩約10分鐘</t>
+  </si>
+  <si>
+    <t>燒肉貴韓房</t>
+  </si>
+  <si>
+    <t>水戶市宮町1-7-31水戶車站6樓／+81-29-3069556／11:00～22:00／燒肉吃到飽70種3218日圓，限時90分鐘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水戶八燔宮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +328,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -181,6 +366,36 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,6 +431,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,28 +748,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="28.625" customWidth="1"/>
     <col min="2" max="2" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
+    <col min="4" max="4" width="93.5" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -547,39 +777,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -587,18 +817,97 @@
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/行程memo.xlsx
+++ b/行程memo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>茨城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>新宿_藍瓶咖啡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南口NEWoMan的1F(東京都新宿区新宿4-1-6 週一～日8:00~21:30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>JR</t>
     </r>
@@ -166,7 +174,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>「東京」站</t>
+      <t>「東京」站下車，丸之內南口步行</t>
     </r>
     <r>
       <rPr>
@@ -175,7 +183,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -185,7 +193,64 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>丸之內南口過馬路步行約</t>
+      <t>分鐘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馳走三昧（大丸東京店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新橋鶏繁どんぶり子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水戶東照宮</t>
+  </si>
+  <si>
+    <t>JR水戸車站北口徒歩約10分鐘</t>
+  </si>
+  <si>
+    <t>燒肉貴韓房</t>
+  </si>
+  <si>
+    <t>水戶市宮町1-7-31水戶車站6樓／+81-29-3069556／11:00～22:00／燒肉吃到飽70種3218日圓，限時90分鐘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水戶八燔宮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上野_多慶屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上野_yamashiroya玩具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業時間：11：00~23：00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業時間:10：00～21：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>「東京」站</t>
     </r>
     <r>
       <rPr>
@@ -194,7 +259,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -204,7 +269,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>分鐘</t>
+      <t>丸之內南口過馬路步行約</t>
     </r>
     <r>
       <rPr>
@@ -213,7 +278,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">  </t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -223,7 +288,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>營業時間：</t>
+      <t>分鐘</t>
     </r>
     <r>
       <rPr>
@@ -232,7 +297,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>11:00</t>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
@@ -242,7 +307,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>～</t>
+      <t>營業時間：</t>
     </r>
     <r>
       <rPr>
@@ -251,21 +316,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>21:00</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新宿_藍瓶咖啡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南口NEWoMan的1F(東京都新宿区新宿4-1-6 週一～日8:00~21:30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>JR</t>
+      <t>11:00</t>
     </r>
     <r>
       <rPr>
@@ -275,7 +326,7 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>「東京」站下車，丸之內南口步行</t>
+      <t>～</t>
     </r>
     <r>
       <rPr>
@@ -284,7 +335,8 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>5</t>
+      <t xml:space="preserve">21:00 
+</t>
     </r>
     <r>
       <rPr>
@@ -294,33 +346,8 @@
         <family val="3"/>
         <charset val="136"/>
       </rPr>
-      <t>分鐘</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>馳走三昧（大丸東京店）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新橋鶏繁どんぶり子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水戶東照宮</t>
-  </si>
-  <si>
-    <t>JR水戸車站北口徒歩約10分鐘</t>
-  </si>
-  <si>
-    <t>燒肉貴韓房</t>
-  </si>
-  <si>
-    <t>水戶市宮町1-7-31水戶車站6樓／+81-29-3069556／11:00～22:00／燒肉吃到飽70種3218日圓，限時90分鐘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水戶八燔宮</t>
+      <t>六樓有觀景台</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +446,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -446,6 +473,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D22" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -819,19 +849,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -855,10 +885,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" x14ac:dyDescent="0.25">
@@ -869,14 +899,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="5" t="s">
-        <v>19</v>
+      <c r="D16" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -886,12 +916,12 @@
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -899,15 +929,31 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
-        <v>21</v>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/行程memo.xlsx
+++ b/行程memo.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="18315" windowHeight="12015"/>
+    <workbookView xWindow="480" yWindow="255" windowWidth="18315" windowHeight="11970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="買" sheetId="2" r:id="rId2"/>
+    <sheet name="吃" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>茨城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +348,424 @@
       </rPr>
       <t>六樓有觀景台</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新宿_六歌仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東京都新宿區西新宿1-3-1 太陽花大厦6F/7F(大鐵橋十字路口)</t>
+  </si>
+  <si>
+    <t>店家名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上野_激安殿堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折價券內容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上野_松本清</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>預計購買項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>染髮劑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>滿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬日圓可享有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>滿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>萬日圓可享有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上野阿美橫part1店－東京都台東區上野4-10-16</t>
+  </si>
+  <si>
+    <t>上野阿美橫part2店－東京都台東區上野4-7-17</t>
+  </si>
+  <si>
+    <t>9:30 - 21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:30 - 21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.tokyo-koryaku.com/shopping/article/4099.html</t>
+  </si>
+  <si>
+    <t>※藥、雜貨、文具、家具寵物用品賣場為10:00 - 20:30</t>
+  </si>
+  <si>
+    <t>※食品、水果賣場為9:30 - 20:30</t>
+  </si>
+  <si>
+    <t>上野店－11:00 - 22:00</t>
+  </si>
+  <si>
+    <t>御徒町總店－東京都台東區4-33-2</t>
+  </si>
+  <si>
+    <t>上野店－東京都台東區上野2-13-11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>御徒町總店－營業時間為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>10:00 - 20:00</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上野_多慶屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上野_二木果子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一營業所－10:00-20:00</t>
+  </si>
+  <si>
+    <t>Big館－10:00-20:00</t>
+  </si>
+  <si>
+    <t>第一營業所－東京都台東區上野4-1-8</t>
+  </si>
+  <si>
+    <t>Big館－東京都台東區上野4-6-1</t>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能付現金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQLO / GU</t>
+  </si>
+  <si>
+    <t>UNIQLO 御徒町店－10:00-21:00</t>
+  </si>
+  <si>
+    <t>GU御徒町店－10:00-21:00</t>
+  </si>
+  <si>
+    <t>松坂屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東京都台東區上野3-29-5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>御徒町店－東京都台東區上野</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3-27-12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>御徒町吉池本店大樓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>〜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>御徒町店－東京都台東區上野</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3-27-12 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>御徒町吉池本店大樓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 5F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業時間：10:00 - 20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三浦三崎港迴轉壽司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店家名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東京都台東区上野6-12-14</t>
+  </si>
+  <si>
+    <t>平日 10:30-23:00 / 
+週末 10:30-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ＪＲ「上野駅」不忍口，走路約1分鐘就會抵達。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東京都台東區上野6-14-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR「上野站」步行1分鐘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉的大山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JR上野站（山手線、京浜東北線）広小路口 徒歩3分鐘
+東京Metro上野站（銀座線、日比谷線）徒歩3分鐘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+6-13-2, Ueno, Taito-ku, Tokyo, 110-0005, Japan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>週一～週六11:00～23:00
+週日、假日11:00～22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101_LOFT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>營業到2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上野0101_5F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +773,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,18 +841,124 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -446,7 +970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +1000,114 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D21:D22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -956,6 +1588,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -965,25 +1605,278 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="37.75" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="C8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="14" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="C10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="32"/>
+    </row>
+    <row r="11" spans="1:6" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="27" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="C12" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="52.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D3:D4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/行程memo.xlsx
+++ b/行程memo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="255" windowWidth="18315" windowHeight="11970" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="255" windowWidth="18315" windowHeight="11970" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
   <si>
     <t>茨城</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,6 +766,54 @@
   </si>
   <si>
     <t>上野0101_5F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1八重洲地下中央口的東京車站一番街</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東京車站丸之內北口對面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東京車站KITTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川上庵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長野県北佐久郡軽井沢町軽井沢6-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:00 AM～10:00 PM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村民食堂 [長倉]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明治亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輕井澤王子購物廣場味之街 AJ-12‧13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aging Beef 熟成和牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御曹司きよやす庵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長野県北佐久郡軽井沢町軽井沢1178-161</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,7 +821,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -867,6 +915,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF8D8D8D"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -970,7 +1025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1107,6 +1162,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1605,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1794,6 +1852,19 @@
       </c>
       <c r="D15" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1814,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1873,11 +1944,52 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" s="45"/>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>